--- a/experiments/dbscan-ajk/instructor-xl/0.02/prediction.xlsx
+++ b/experiments/dbscan-ajk/instructor-xl/0.02/prediction.xlsx
@@ -468,181 +468,181 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Accelerator is Over Range</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>Accelerator is Over Range</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -658,307 +658,307 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -988,351 +988,351 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91">
@@ -1348,41 +1348,41 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96">
@@ -1398,321 +1398,321 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="129">
@@ -1738,357 +1738,357 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2098,21 +2098,21 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="169">
@@ -2128,167 +2128,167 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2298,507 +2298,507 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -2808,17 +2808,17 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -2828,27 +2828,27 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -2858,47 +2858,47 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -2918,107 +2918,107 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3138,461 +3138,461 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="317">
@@ -3608,397 +3608,397 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>279</v>
+        <v>295</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>281</v>
+        <v>296</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>282</v>
+        <v>297</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>283</v>
+        <v>298</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>284</v>
+        <v>299</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -4008,237 +4008,237 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -4248,1351 +4248,1351 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>344</v>
+        <v>202</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>362</v>
+        <v>373</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>386</v>
+        <v>330</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>388</v>
+        <v>330</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>413</v>
+        <v>433</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>414</v>
+        <v>434</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>415</v>
+        <v>435</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>416</v>
+        <v>436</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>417</v>
+        <v>437</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>418</v>
+        <v>437</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>419</v>
+        <v>438</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>420</v>
+        <v>439</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>421</v>
+        <v>440</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>422</v>
+        <v>441</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>423</v>
+        <v>442</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>431</v>
+        <v>420</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="517">
@@ -5608,551 +5608,551 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>483</v>
+        <v>38</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>499</v>
+        <v>486</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>512</v>
+        <v>299</v>
       </c>
     </row>
     <row r="573">
